--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value689.xlsx
@@ -354,7 +354,7 @@
         <v>2.838257518003154</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.6809930912445684</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value689.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.752898297654544</v>
+        <v>1.388675451278687</v>
       </c>
       <c r="B1">
-        <v>2.838257518003154</v>
+        <v>1.499651312828064</v>
       </c>
       <c r="C1">
+        <v>1.687732815742493</v>
+      </c>
+      <c r="D1">
+        <v>2.611310482025146</v>
+      </c>
+      <c r="E1">
         <v>15</v>
-      </c>
-      <c r="D1">
-        <v>0.6809930912445684</v>
-      </c>
-      <c r="E1">
-        <v>0.2158032990649013</v>
       </c>
     </row>
   </sheetData>
